--- a/biology/Botanique/Boronia/Boronia.xlsx
+++ b/biology/Botanique/Boronia/Boronia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Boronia forment un genre d'environ 90 à 100 espèces de buissons de la famille des Rutaceae. On les trouve dans toute l'Australie.
 </t>
@@ -511,7 +523,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Boronia citriodora
 Boronia clavata
@@ -551,7 +565,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">les boronias poussent dans les forêts clairsemées et les bois. On ne les trouve que rarement dans les zones arides ou trop humides.
 </t>
@@ -582,7 +598,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les boronias sont cultivées pour leurs fleurs parfumées surtout l'espèce B. megastigma dont on extrait des huiles essentielles utilisées en parfumerie. Elles sont généralement assez difficiles à cultiver. Elles réclament en effet un excellent drainage du sol (terrain sablonneux), une certaine humidité de l'air et une ombre légère.
 La reproduction par graine est très difficile, on lui préfère la reproduction par bouture.
